--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanta\OneDrive\Documents\Formation OpenClassroom\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDBA45-EFBB-4E79-A9E2-2D1F127BB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DA9B8-981F-46BE-A2CE-5B6B6B0436FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité </t>
-  </si>
-  <si>
-    <t>Responsive design</t>
   </si>
   <si>
     <t>Adapter le design au mobile</t>
@@ -284,7 +278,31 @@
     <t>Utiliser des sites comme GTmetrics ou Pingdom pour mesurer la vitesse de chargement de vos pages.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le site n'est pas totalement responsive.La police des paragraphes est trop petite  et les images n'ont pas les mêmes dimensions. </t>
+    <t xml:space="preserve">La police des paragraphes est trop petite  pour la version mobile. </t>
+  </si>
+  <si>
+    <t>Dimensions des images</t>
+  </si>
+  <si>
+    <t>Taille de police</t>
+  </si>
+  <si>
+    <t>Les images n'ont pas toutes les même dimension pour la version mobile. Certaines ne sont pas adapter à la taille de leur contenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut adapter les images à la taille de leur contenant. Plus une image est grande, plus elle est lourde et donc longue à télécharger pour le navigateur. </t>
+  </si>
+  <si>
+    <t>Code CSS minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code css n'est pas minifier. Il y a des caractères inutiles (espaces, sauts de lignes, commentaires, séparateurs de bloc) qui rendent le fichier plus plus lourd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retirer les caractères inutiles et minifier le code. </t>
+  </si>
+  <si>
+    <t>Utiliser des applications web telles que https://www.minifier.org/ ou http://compressmycode.com.</t>
   </si>
 </sst>
 </file>
@@ -629,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -666,244 +684,262 @@
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1000,136 +1036,136 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanta\OneDrive\Documents\Formation OpenClassroom\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DA9B8-981F-46BE-A2CE-5B6B6B0436FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A535870-DD0C-4BC0-AC84-A8E4328788BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -49,27 +49,9 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>Adapter le design au mobile</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
-    <t>On utilise la mauvaise ville, Paris au lieu de Lyon dans les mot-clés locaux</t>
-  </si>
-  <si>
-    <t>Il faut ajouter la ville de Lyon</t>
-  </si>
-  <si>
-    <t>Supprimer Paris des mc et remplacer par lyon</t>
-  </si>
-  <si>
-    <t>Mots clés locaux</t>
-  </si>
-  <si>
-    <t>Répétition/variété des mots-clés</t>
-  </si>
-  <si>
     <t>agence web design</t>
   </si>
   <si>
@@ -178,138 +160,150 @@
     <t>Catégorie (SEO ou accessiblité ?)</t>
   </si>
   <si>
-    <t>Chargement du site</t>
-  </si>
-  <si>
-    <t>Un site trop lent découragera les visiteurs, et pourra poser des problèmes d'indexation de votre site (au-dessus de 4 secondes de chargement, le site est déjà considéré comme lent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il n'y a pas de titre au site web ni de description ces balises indiquent aux moteurs de recherche de quoi traite la page. Elles sont aussi affichées dans les résultats. 
+    <t>Il faut décrire correctement l'image et si possible, y ajouter le mot-clé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter la baslise alt à l'image concernée et ajouter le mot-clés si c'est cohérent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette balise sert à expliquer le contenu de l'image aux moteurs de recherche et à décrire l'image pour les personnes malvoyantes.  On peut ajouter des mots-clés mais il ne faut pas surcharger les balises pour tromper Google </t>
+  </si>
+  <si>
+    <t>Les icônes des réseaux sociaux sont présentes mais elles ne renvoient vers aucuns comptes/sites</t>
+  </si>
+  <si>
+    <t>Ajouter les liens vers les comptes de l'entreprise</t>
+  </si>
+  <si>
+    <t>Vérifier si les comptes de réseaux sociaux ont bien été créés et les liés au site Internet</t>
+  </si>
+  <si>
+    <t>Supprimer les liens avec des sites de mauvaise qualité et dont le sujet n'est pas cohérent avec notre domaine d'activité.</t>
+  </si>
+  <si>
+    <t>Manque de structure du texte (h1, h2, p…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte n'est pas correctement structurer. Les sous-parties (citations) sont en fait des images. </t>
+  </si>
+  <si>
+    <t>Il faut optimiser les titres en ayant un seul &lt;h1&gt;, des &lt;h2&gt; pour les sous parties et des &lt;p&gt; pour les paragraphes.</t>
+  </si>
+  <si>
+    <t>Supprimer les images avec les citations et recopier le texte dans des &lt;h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter des liens vers des site de qualité, de même langue et sujet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y a trop de liens inutiles dans le footer, dont le placement est de moindre qualité et dont sujet n'est pas cohérent avec notre domaine d'activité. Plus il y a de liens, moins Google en prendra connaissance. Les annuaires sont de moins en moins pris en compte.  </t>
+  </si>
+  <si>
+    <t>Code CSS minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code css n'est pas minifier. Il y a des caractères inutiles (espaces, sauts de lignes, commentaires, séparateurs de bloc) qui rendent le fichier plus plus lourd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retirer les caractères inutiles et minifier le code. </t>
+  </si>
+  <si>
+    <t>Utiliser des applications web telles que https://www.minifier.org/ ou http://compressmycode.com.</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Le rose utilisé pour les titre rend le contenu inaccessible car le texte se confond avec l'arrière-plan, et même les plus grandes lettres peuvent être difficiles à lire.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>Contraste de couleur non conforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il faut utiliser une couleur qui crée une impression similaire sans compromettre la clarté du document. Le texte doit être séparé de l'arrière-plan et  facile à lire.</t>
+  </si>
+  <si>
+    <t>Remplacer les couleur en utilisant un outil comme https://colorable.jxnblk.com/</t>
+  </si>
+  <si>
+    <t>Aucune langue renseignée</t>
+  </si>
+  <si>
+    <t>Aucune langue n'a été indiquée dans la balise &lt;html lang&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut indiquer que le site est destiné au public fr afin d'améliorer notre classement dans les résultats fr. </t>
+  </si>
+  <si>
+    <t>ajouter "fr" dans la balise &lt;html lang=&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La police des paragraphes est trop petite pour la version mobile. Les images n'ont pas toutes les même dimension et certaines sont trop grande par rapport à leur contenant. </t>
+  </si>
+  <si>
+    <t>Responsive design version mobile (taille de police/d'image)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut augmeter la police des paragraphes pour qu'ils soient plus lisibles et adapter les images à la taille de leur contenant. Plus une image est grande, plus elle est lourde et donc longue à télécharger pour le navigateur. </t>
+  </si>
+  <si>
+    <t>Font size 18px et dimensions 260x260px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter un titre et rédiger une description attreyante et contenant le mot clés. Ajouter la balise meta robots en index follow. </t>
+  </si>
+  <si>
+    <t>Le titre et la description doivent contenir le mot-clé visé et donner envie au visiteur. La meta robots doit être en "index, follow"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n'y a pas de titre au site web ni de description. Ces balises indiquent aux moteurs de recherche de quoi traite la page et sont aussi affichées dans les résultats de recherche. Il manque la meta robots qui indique aux moteurs de recherche qu'ils doivent indexer la page (index) et suivre les liens présents sur celle-ci (follow)
 </t>
   </si>
   <si>
-    <t>Ajouter un titre et rédiger une description attreyante et contenant le mot clés</t>
-  </si>
-  <si>
-    <t>Elles doivent contenir le mot-clé visé, mais aussi donner envie au visiteur de cliquer pour lire votre page.</t>
-  </si>
-  <si>
-    <t>Balises meta descrption/title vides</t>
-  </si>
-  <si>
-    <t>Pas de Meta robots</t>
-  </si>
-  <si>
-    <t>Il manque la meta robots qui indique aux moteurs de recherche qu'ils doivent indexer la page (index) et suivre les liens présents sur celle-ci (follow)</t>
-  </si>
-  <si>
-    <t>Vérifiez que le contenu de cette balise est bien en "index, follow"</t>
-  </si>
-  <si>
-    <t>Ajouter la balise meta robots en index follow</t>
-  </si>
-  <si>
-    <t>Il faut décrire correctement l'image et si possible, y ajouter le mot-clé.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter la baslise alt à l'image concernée et ajouter le mot-clés si c'est cohérent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette balise sert à expliquer le contenu de l'image aux moteurs de recherche et à décrire l'image pour les personnes malvoyantes.  On peut ajouter des mots-clés mais il ne faut pas surcharger les balises pour tromper Google </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les balises alt surchargées </t>
-  </si>
-  <si>
-    <t>Aucun lien vers les réseaux sociaux</t>
-  </si>
-  <si>
-    <t>Les icônes des réseaux sociaux sont présentes mais elles ne renvoient vers aucuns comptes/sites</t>
-  </si>
-  <si>
-    <t>Ajouter les liens vers les comptes de l'entreprise</t>
-  </si>
-  <si>
-    <t>Vérifier si les comptes de réseaux sociaux ont bien été créés et les liés au site Internet</t>
-  </si>
-  <si>
-    <t>Liens footer "spammy"</t>
-  </si>
-  <si>
-    <t>Supprimer les liens avec des sites de mauvaise qualité et dont le sujet n'est pas cohérent avec notre domaine d'activité.</t>
-  </si>
-  <si>
-    <t>Se focaliser sur un seul mot-clés</t>
-  </si>
-  <si>
-    <t>Manque de structure du texte (h1, h2, p…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte n'est pas correctement structurer. Les sous-parties (citations) sont en fait des images. </t>
-  </si>
-  <si>
-    <t>Il faut optimiser les titres en ayant un seul &lt;h1&gt;, des &lt;h2&gt; pour les sous parties et des &lt;p&gt; pour les paragraphes.</t>
-  </si>
-  <si>
-    <t>Supprimer les images avec les citations et recopier le texte dans des &lt;h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placement des mots clés </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les mot-clés sont placés dans des balises &lt;div&gt;. Ils ne sont pas dans le titre &lt;h1&gt; et dans un paragraphe. </t>
-  </si>
-  <si>
-    <t>Ajouter le mot-clés dans le titre &lt;h1&gt; et dans au moins un parapgraphe, de manière exacte. Supprimer les &lt;div class"keywords"&gt; superflux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le mot-clés doit être placé dans les "zones chaudes" de la page. Il doit apparaîte : dans les titres de manière exacte, et/ou remplacé par des synonymes dans les  &lt;h2&gt;, dans les paragraphes, au moins 1 fois de manière exacte et dans descriptions des images lorsque c'est cohérent. Attention à ne pas en abuser. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter des liens vers des site de qualité, de même langue et sujet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il y a trop de liens inutiles dans le footer, dont le placement est de moindre qualité et dont sujet n'est pas cohérent avec notre domaine d'activité. Plus il y a de liens, moins Google en prendra connaissance. Les annuaires sont de moins en moins pris en compte.  </t>
-  </si>
-  <si>
-    <t>Il n'y a trop de variété dans les mots-clés. Se sont les mêmes qui sont répétés (agence design)</t>
-  </si>
-  <si>
-    <t>Utiliser des sites comme GTmetrics ou Pingdom pour mesurer la vitesse de chargement de vos pages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La police des paragraphes est trop petite  pour la version mobile. </t>
-  </si>
-  <si>
-    <t>Dimensions des images</t>
-  </si>
-  <si>
-    <t>Taille de police</t>
-  </si>
-  <si>
-    <t>Les images n'ont pas toutes les même dimension pour la version mobile. Certaines ne sont pas adapter à la taille de leur contenant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut adapter les images à la taille de leur contenant. Plus une image est grande, plus elle est lourde et donc longue à télécharger pour le navigateur. </t>
-  </si>
-  <si>
-    <t>Code CSS minifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le code css n'est pas minifier. Il y a des caractères inutiles (espaces, sauts de lignes, commentaires, séparateurs de bloc) qui rendent le fichier plus plus lourd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retirer les caractères inutiles et minifier le code. </t>
-  </si>
-  <si>
-    <t>Utiliser des applications web telles que https://www.minifier.org/ ou http://compressmycode.com.</t>
+    <t xml:space="preserve">Les balises alt sont surchargées </t>
+  </si>
+  <si>
+    <t>Les balises meta sont vides (descrption/title/robots)</t>
+  </si>
+  <si>
+    <t>Il n'y a aucun lien vers les réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Les mots-clés sont mal choisis-placés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On utilise la mauvaise ville, Paris au lieu de Lyon. Les mot-clés sont placés dans des balises &lt;div&gt;. Ils ne sont pas dans le titre &lt;h1&gt; et dans un paragraphe. </t>
+  </si>
+  <si>
+    <t>Ajouter le mot-clés (entreprise web design Lyon) dans le titre &lt;h1&gt; et dans au moins un parapgraphe, de manière exacte. Supprimer les &lt;div class"keywords"&gt; superflux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut se focaliser sur un mot-clés et ajouter la bonne ville. Le mot-clés doit être placé dans les "zones chaudes" de la page. Il doit apparaîte : dans les titres de manière exacte, et/ou remplacé par des synonymes dans les  &lt;h2&gt;, dans les paragraphes, au moins 1 fois de manière exacte. Il peut être dans des descriptions d'images (alt) lorsque c'est cohérent. Attention à ne pas en abuser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des sites comme GTmetrics ou Pingdom pour mesurer la vitesse de chargement de vos pages, https://compressor.io/ pour compresser les images. </t>
+  </si>
+  <si>
+    <t>Il y a trop de liens dans le footer</t>
+  </si>
+  <si>
+    <t>Compresser les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images peuvent encore être compréssées pour gagner diminuer le poids des fichiers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut compresser au maximum les images pour réduire la vitesse de chargement du site. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,34 +316,42 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +366,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -400,38 +408,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,378 +663,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="9" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" style="4"/>
     <col min="5" max="5" width="50.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="30.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{575D85B6-D320-4017-9B1F-3A96F3B2D4C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1036,136 +959,136 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanta\OneDrive\Documents\Formation OpenClassroom\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A535870-DD0C-4BC0-AC84-A8E4328788BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B92D24-E8F6-4268-AACE-E5D63A9CC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Le rose utilisé pour les titre rend le contenu inaccessible car le texte se confond avec l'arrière-plan, et même les plus grandes lettres peuvent être difficiles à lire.</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
   <si>
@@ -226,19 +223,7 @@
     <t xml:space="preserve"> Il faut utiliser une couleur qui crée une impression similaire sans compromettre la clarté du document. Le texte doit être séparé de l'arrière-plan et  facile à lire.</t>
   </si>
   <si>
-    <t>Remplacer les couleur en utilisant un outil comme https://colorable.jxnblk.com/</t>
-  </si>
-  <si>
     <t>Aucune langue renseignée</t>
-  </si>
-  <si>
-    <t>Aucune langue n'a été indiquée dans la balise &lt;html lang&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut indiquer que le site est destiné au public fr afin d'améliorer notre classement dans les résultats fr. </t>
-  </si>
-  <si>
-    <t>ajouter "fr" dans la balise &lt;html lang=&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">La police des paragraphes est trop petite pour la version mobile. Les images n'ont pas toutes les même dimension et certaines sont trop grande par rapport à leur contenant. </t>
@@ -297,6 +282,21 @@
   </si>
   <si>
     <t xml:space="preserve">Il faut compresser au maximum les images pour réduire la vitesse de chargement du site. </t>
+  </si>
+  <si>
+    <t>Le contraste de couleur n'est pas adapté, conforme. Le rose sur gris/blanc donne un contenu inaccessible car le texte se confond avec l'arrière-plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier la langue de la page permettra aux robots/liseuses de lire le texte avec le bon accent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'assurer que la langue "fr" soit indiquée (&lt;html lang="fr"&gt;). </t>
+  </si>
+  <si>
+    <t>Aucune langue n'a été indiquée dans la balise &lt;html lang=&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer les couleur et utiliser #f6cc39 pour le texte, #EAF639pour les hover et #B12F30 pour le bacground (exemple réalisé avec https://colorable.jxnblk.com/f6cc39/b12f30).  </t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -705,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>45</v>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>54</v>
@@ -795,16 +795,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -813,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -849,19 +849,19 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -869,16 +869,16 @@
         <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -887,16 +887,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6"/>
     </row>
